--- a/m6A papers/Performance_0609.xlsx
+++ b/m6A papers/Performance_0609.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\m6A papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\paper_implement\m6A papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B062DF-B8E7-4F34-B477-C60A9D9EDE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="1" r:id="rId1"/>
@@ -19,10 +20,20 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1315,7 +1326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1770,155 +1781,155 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1950,7 +1961,13 @@
     <xdr:ext cx="6225428" cy="3474721"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2005,7 +2022,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2043,7 +2066,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2086,7 +2115,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2435,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U109"/>
   <sheetViews>
     <sheetView topLeftCell="G25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2528,50 +2563,50 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="77">
+      <c r="E2" s="98">
         <v>43672</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="66">
         <v>3.4910000000000001</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="71" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="101" t="s">
         <v>173</v>
       </c>
       <c r="Q2" s="22" t="s">
@@ -2591,26 +2626,26 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
       <c r="Q3" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="67">
+      <c r="R3" s="68">
         <v>41</v>
       </c>
       <c r="S3" s="20">
@@ -2621,26 +2656,26 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
       <c r="Q4" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="67"/>
       <c r="S4" s="21">
         <v>1450</v>
       </c>
@@ -2649,56 +2684,56 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="98">
         <v>43749</v>
       </c>
-      <c r="F5" s="81">
+      <c r="F5" s="102">
         <v>4.5990000000000002</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="84" t="s">
+      <c r="G5" s="64"/>
+      <c r="H5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="103" t="s">
+      <c r="K5" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="O5" s="78" t="s">
+      <c r="O5" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="64" t="s">
         <v>196</v>
       </c>
       <c r="Q5" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="64">
+      <c r="R5" s="66">
         <v>41</v>
       </c>
       <c r="S5" s="42">
@@ -2709,26 +2744,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="60"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="65"/>
       <c r="Q6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="67"/>
+      <c r="R6" s="68"/>
       <c r="S6" s="44">
         <v>308000</v>
       </c>
@@ -2737,26 +2772,26 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="61"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="R7" s="65"/>
+      <c r="R7" s="67"/>
       <c r="S7" s="43">
         <v>3868</v>
       </c>
@@ -2765,56 +2800,56 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="93">
+      <c r="E8" s="99">
         <v>44029</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="68">
         <v>3.367</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="72" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="L8" s="106" t="s">
+      <c r="L8" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="N8" s="60" t="s">
+      <c r="N8" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="O8" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="62" t="s">
+      <c r="P8" s="108" t="s">
         <v>209</v>
       </c>
       <c r="Q8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="68">
         <v>41</v>
       </c>
       <c r="S8" s="46">
@@ -2825,26 +2860,26 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
       <c r="Q9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="67"/>
+      <c r="R9" s="68"/>
       <c r="S9" s="46">
         <v>1450</v>
       </c>
@@ -2853,22 +2888,22 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
       <c r="Q10" s="6" t="s">
         <v>22</v>
       </c>
@@ -2883,22 +2918,22 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
       <c r="Q11" s="21" t="s">
         <v>138</v>
       </c>
@@ -2913,56 +2948,56 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="98">
         <v>44217</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="66">
         <v>5.7190000000000003</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="74" t="s">
+      <c r="G12" s="64"/>
+      <c r="H12" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="N12" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="101" t="s">
         <v>230</v>
       </c>
       <c r="Q12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="64">
+      <c r="R12" s="66">
         <v>41</v>
       </c>
       <c r="S12" s="19">
@@ -2973,26 +3008,26 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
       <c r="Q13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="65"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="21">
         <v>308000</v>
       </c>
@@ -3001,56 +3036,56 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="98">
         <v>44078</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="66">
         <v>8.8859999999999992</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="74" t="s">
+      <c r="G14" s="64"/>
+      <c r="H14" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="M14" s="63" t="s">
+      <c r="M14" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="N14" s="59" t="s">
+      <c r="N14" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="O14" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="P14" s="63" t="s">
+      <c r="P14" s="64" t="s">
         <v>240</v>
       </c>
       <c r="Q14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="64">
+      <c r="R14" s="66">
         <v>41</v>
       </c>
       <c r="S14" s="19">
@@ -3061,26 +3096,26 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
       <c r="Q15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="67"/>
+      <c r="R15" s="68"/>
       <c r="S15" s="20">
         <v>10536</v>
       </c>
@@ -3089,26 +3124,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
       <c r="Q16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="67"/>
+      <c r="R16" s="68"/>
       <c r="S16" s="20">
         <v>18294</v>
       </c>
@@ -3117,26 +3152,26 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
       <c r="Q17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="67"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="20">
         <v>32100</v>
       </c>
@@ -3145,26 +3180,26 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
       <c r="Q18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="67"/>
+      <c r="R18" s="68"/>
       <c r="S18" s="20">
         <v>16532</v>
       </c>
@@ -3173,26 +3208,26 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
       <c r="Q19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="67"/>
+      <c r="R19" s="68"/>
       <c r="S19" s="20">
         <v>15810</v>
       </c>
@@ -3201,26 +3236,26 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
       <c r="Q20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="67"/>
+      <c r="R20" s="68"/>
       <c r="S20" s="20">
         <v>8802</v>
       </c>
@@ -3229,26 +3264,26 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
       <c r="Q21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="67"/>
+      <c r="R21" s="68"/>
       <c r="S21" s="20">
         <v>18823</v>
       </c>
@@ -3257,26 +3292,26 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
       <c r="Q22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="67"/>
+      <c r="R22" s="68"/>
       <c r="S22" s="20">
         <v>9406</v>
       </c>
@@ -3285,26 +3320,26 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
       <c r="Q23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="67"/>
+      <c r="R23" s="68"/>
       <c r="S23" s="20">
         <v>7048</v>
       </c>
@@ -3313,26 +3348,26 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
       <c r="Q24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="65"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="21">
         <v>13740</v>
       </c>
@@ -3341,56 +3376,56 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="98">
         <v>43960</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="66">
         <v>4.0960000000000001</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="71" t="s">
+      <c r="G25" s="64"/>
+      <c r="H25" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I25" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="K25" s="63" t="s">
+      <c r="K25" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="L25" s="63" t="s">
+      <c r="L25" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="M25" s="63" t="s">
+      <c r="M25" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="N25" s="59" t="s">
+      <c r="N25" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="O25" s="59" t="s">
+      <c r="O25" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="P25" s="63" t="s">
+      <c r="P25" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="Q25" s="107" t="s">
+      <c r="Q25" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="107">
+      <c r="R25" s="78">
         <v>51</v>
       </c>
       <c r="S25" s="19">
@@ -3401,24 +3436,24 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="108"/>
-      <c r="R26" s="108"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
       <c r="S26" s="21">
         <v>6540</v>
       </c>
@@ -3427,56 +3462,56 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="98">
         <v>44214</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="66">
         <v>4.4749999999999996</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="71" t="s">
+      <c r="G27" s="64"/>
+      <c r="H27" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="M27" s="63" t="s">
+      <c r="M27" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="N27" s="59" t="s">
+      <c r="N27" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="O27" s="59" t="s">
+      <c r="O27" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="P27" s="63" t="s">
+      <c r="P27" s="64" t="s">
         <v>257</v>
       </c>
       <c r="Q27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R27" s="64">
+      <c r="R27" s="66">
         <v>41</v>
       </c>
       <c r="S27" s="19">
@@ -3488,26 +3523,26 @@
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
       <c r="Q28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R28" s="67"/>
+      <c r="R28" s="68"/>
       <c r="S28" s="20">
         <v>308000</v>
       </c>
@@ -3517,26 +3552,26 @@
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="R29" s="67"/>
+      <c r="R29" s="68"/>
       <c r="S29" s="20">
         <v>196966</v>
       </c>
@@ -3545,26 +3580,26 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
       <c r="Q30" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="R30" s="67"/>
+      <c r="R30" s="68"/>
       <c r="S30" s="20">
         <v>11466</v>
       </c>
@@ -3573,26 +3608,26 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
       <c r="Q31" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="65"/>
+      <c r="R31" s="67"/>
       <c r="S31" s="21">
         <v>2834</v>
       </c>
@@ -3601,56 +3636,56 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="77">
+      <c r="E32" s="98">
         <v>44197</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="66">
         <v>3.367</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="71" t="s">
+      <c r="G32" s="64"/>
+      <c r="H32" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="63" t="s">
+      <c r="I32" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="J32" s="66" t="s">
+      <c r="J32" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="K32" s="63" t="s">
+      <c r="K32" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="L32" s="63" t="s">
+      <c r="L32" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="M32" s="63" t="s">
+      <c r="M32" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="N32" s="63" t="s">
+      <c r="N32" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="O32" s="59" t="s">
+      <c r="O32" s="101" t="s">
         <v>265</v>
       </c>
-      <c r="P32" s="59" t="s">
+      <c r="P32" s="101" t="s">
         <v>264</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="64">
+      <c r="R32" s="66">
         <v>41</v>
       </c>
       <c r="S32" s="19">
@@ -3661,26 +3696,26 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="R33" s="67"/>
+      <c r="R33" s="68"/>
       <c r="S33" s="20">
         <v>1450</v>
       </c>
@@ -3689,22 +3724,22 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
       <c r="Q34" s="20" t="s">
         <v>52</v>
       </c>
@@ -3719,22 +3754,22 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
       <c r="Q35" s="21" t="s">
         <v>53</v>
       </c>
@@ -3807,54 +3842,54 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="77">
+      <c r="D37" s="81"/>
+      <c r="E37" s="98">
         <v>43902</v>
       </c>
-      <c r="F37" s="64" t="s">
+      <c r="F37" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="71" t="s">
+      <c r="G37" s="64"/>
+      <c r="H37" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="I37" s="66" t="s">
+      <c r="I37" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="J37" s="63" t="s">
+      <c r="J37" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="K37" s="63" t="s">
+      <c r="K37" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="L37" s="63" t="s">
+      <c r="L37" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="M37" s="66" t="s">
+      <c r="M37" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="N37" s="59" t="s">
+      <c r="N37" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="O37" s="59" t="s">
+      <c r="O37" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="P37" s="63" t="s">
+      <c r="P37" s="64" t="s">
         <v>286</v>
       </c>
       <c r="Q37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R37" s="64">
+      <c r="R37" s="66">
         <v>41</v>
       </c>
       <c r="S37" s="19">
@@ -3865,26 +3900,26 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
       <c r="Q38" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="R38" s="67"/>
+      <c r="R38" s="68"/>
       <c r="S38" s="20">
         <v>761300</v>
       </c>
@@ -3893,26 +3928,26 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
       <c r="Q39" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="R39" s="67"/>
+      <c r="R39" s="68"/>
       <c r="S39" s="20">
         <v>76104</v>
       </c>
@@ -3921,26 +3956,26 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
       <c r="Q40" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R40" s="67"/>
+      <c r="R40" s="68"/>
       <c r="S40" s="20">
         <v>53028</v>
       </c>
@@ -3949,26 +3984,26 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
       <c r="Q41" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="R41" s="67"/>
+      <c r="R41" s="68"/>
       <c r="S41" s="20">
         <v>29354</v>
       </c>
@@ -3977,26 +4012,26 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
       <c r="Q42" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="R42" s="67"/>
+      <c r="R42" s="68"/>
       <c r="S42" s="20">
         <v>1553716</v>
       </c>
@@ -4005,26 +4040,26 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
       <c r="Q43" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="R43" s="67"/>
+      <c r="R43" s="68"/>
       <c r="S43" s="20">
         <v>326986</v>
       </c>
@@ -4033,26 +4068,26 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
       <c r="Q44" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="R44" s="67"/>
+      <c r="R44" s="68"/>
       <c r="S44" s="20">
         <v>6903</v>
       </c>
@@ -4061,26 +4096,26 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
       <c r="Q45" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="R45" s="65"/>
+      <c r="R45" s="67"/>
       <c r="S45" s="21">
         <v>8188</v>
       </c>
@@ -4089,54 +4124,54 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63" t="s">
+      <c r="B46" s="64"/>
+      <c r="C46" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="77">
+      <c r="E46" s="98">
         <v>44078</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="66">
         <v>3.4910000000000001</v>
       </c>
-      <c r="G46" s="63"/>
-      <c r="H46" s="71" t="s">
+      <c r="G46" s="64"/>
+      <c r="H46" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="I46" s="66" t="s">
+      <c r="I46" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="J46" s="63" t="s">
+      <c r="J46" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="K46" s="63" t="s">
+      <c r="K46" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="L46" s="63" t="s">
+      <c r="L46" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="M46" s="63" t="s">
+      <c r="M46" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="N46" s="63" t="s">
+      <c r="N46" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="O46" s="63" t="s">
+      <c r="O46" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="P46" s="63" t="s">
+      <c r="P46" s="64" t="s">
         <v>183</v>
       </c>
       <c r="Q46" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R46" s="64">
+      <c r="R46" s="66">
         <v>41</v>
       </c>
       <c r="S46" s="19">
@@ -4147,26 +4182,26 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
       <c r="Q47" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="65"/>
+      <c r="R47" s="67"/>
       <c r="S47" s="21">
         <v>3868</v>
       </c>
@@ -4217,38 +4252,38 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="68" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="64">
+      <c r="E49" s="66">
         <v>2021</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="66">
         <v>7.7210000000000001</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="71" t="s">
+      <c r="G49" s="64"/>
+      <c r="H49" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
       <c r="Q49" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="R49" s="64">
+      <c r="R49" s="66">
         <v>41</v>
       </c>
       <c r="S49" s="19">
@@ -4259,26 +4294,26 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
       <c r="Q50" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="R50" s="67"/>
+      <c r="R50" s="68"/>
       <c r="S50" s="20">
         <v>10536</v>
       </c>
@@ -4287,26 +4322,26 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65"/>
       <c r="Q51" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="R51" s="67"/>
+      <c r="R51" s="68"/>
       <c r="S51" s="20">
         <v>18294</v>
       </c>
@@ -4315,26 +4350,26 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65"/>
       <c r="Q52" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="R52" s="67"/>
+      <c r="R52" s="68"/>
       <c r="S52" s="20">
         <v>32100</v>
       </c>
@@ -4343,26 +4378,26 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
       <c r="Q53" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R53" s="67"/>
+      <c r="R53" s="68"/>
       <c r="S53" s="20">
         <v>16532</v>
       </c>
@@ -4371,26 +4406,26 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65"/>
       <c r="Q54" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R54" s="67"/>
+      <c r="R54" s="68"/>
       <c r="S54" s="20">
         <v>15810</v>
       </c>
@@ -4399,26 +4434,26 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65"/>
       <c r="Q55" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R55" s="67"/>
+      <c r="R55" s="68"/>
       <c r="S55" s="20">
         <v>8802</v>
       </c>
@@ -4427,26 +4462,26 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
       <c r="Q56" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R56" s="67"/>
+      <c r="R56" s="68"/>
       <c r="S56" s="20">
         <v>18823</v>
       </c>
@@ -4455,26 +4490,26 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
       <c r="Q57" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="R57" s="67"/>
+      <c r="R57" s="68"/>
       <c r="S57" s="20">
         <v>9406</v>
       </c>
@@ -4483,26 +4518,26 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
       <c r="Q58" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="R58" s="67"/>
+      <c r="R58" s="68"/>
       <c r="S58" s="20">
         <v>7048</v>
       </c>
@@ -4511,26 +4546,26 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
       <c r="Q59" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="R59" s="65"/>
+      <c r="R59" s="67"/>
       <c r="S59" s="21">
         <v>13740</v>
       </c>
@@ -4539,38 +4574,38 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
+      <c r="A60" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="68" t="s">
+      <c r="C60" s="64"/>
+      <c r="D60" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="64">
+      <c r="E60" s="66">
         <v>2021</v>
       </c>
-      <c r="F60" s="64">
+      <c r="F60" s="66">
         <v>4.38</v>
       </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="74" t="s">
+      <c r="G60" s="64"/>
+      <c r="H60" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
       <c r="Q60" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R60" s="64">
+      <c r="R60" s="66">
         <v>41</v>
       </c>
       <c r="S60" s="19">
@@ -4581,26 +4616,26 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65"/>
       <c r="Q61" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R61" s="67"/>
+      <c r="R61" s="68"/>
       <c r="S61" s="20">
         <v>308000</v>
       </c>
@@ -4609,26 +4644,26 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="60"/>
-      <c r="O62" s="60"/>
-      <c r="P62" s="60"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65"/>
       <c r="Q62" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="R62" s="67"/>
+      <c r="R62" s="68"/>
       <c r="S62" s="20">
         <v>8979</v>
       </c>
@@ -4637,26 +4672,26 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
       <c r="Q63" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R63" s="65"/>
+      <c r="R63" s="67"/>
       <c r="S63" s="21">
         <v>67650</v>
       </c>
@@ -4665,38 +4700,38 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="63"/>
-      <c r="D64" s="68" t="s">
+      <c r="C64" s="64"/>
+      <c r="D64" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="64">
+      <c r="E64" s="66">
         <v>2021</v>
       </c>
-      <c r="F64" s="64">
+      <c r="F64" s="66">
         <v>2.984</v>
       </c>
-      <c r="G64" s="63"/>
-      <c r="H64" s="74" t="s">
+      <c r="G64" s="64"/>
+      <c r="H64" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64"/>
       <c r="Q64" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R64" s="64">
+      <c r="R64" s="66">
         <v>41</v>
       </c>
       <c r="S64" s="19">
@@ -4707,26 +4742,26 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="60"/>
-      <c r="O65" s="60"/>
-      <c r="P65" s="60"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65"/>
+      <c r="O65" s="65"/>
+      <c r="P65" s="65"/>
       <c r="Q65" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R65" s="67"/>
+      <c r="R65" s="68"/>
       <c r="S65" s="20">
         <v>3868</v>
       </c>
@@ -4735,26 +4770,26 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
       <c r="Q66" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="R66" s="65"/>
+      <c r="R66" s="67"/>
       <c r="S66" s="21">
         <v>1229712</v>
       </c>
@@ -4763,36 +4798,36 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="90" t="s">
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E67" s="66">
         <v>2021</v>
       </c>
-      <c r="F67" s="64">
+      <c r="F67" s="66">
         <v>11.622</v>
       </c>
-      <c r="G67" s="64"/>
-      <c r="H67" s="71" t="s">
+      <c r="G67" s="66"/>
+      <c r="H67" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
       <c r="Q67" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="R67" s="64">
+      <c r="R67" s="66">
         <v>41</v>
       </c>
       <c r="S67" s="19">
@@ -4803,26 +4838,26 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65"/>
-      <c r="P68" s="65"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="67"/>
       <c r="Q68" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="R68" s="65"/>
+      <c r="R68" s="67"/>
       <c r="S68" s="21">
         <v>21306</v>
       </c>
@@ -4831,38 +4866,38 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="68" t="s">
+      <c r="C69" s="64"/>
+      <c r="D69" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="E69" s="64">
+      <c r="E69" s="66">
         <v>2021</v>
       </c>
-      <c r="F69" s="64">
+      <c r="F69" s="66">
         <v>2.6789999999999998</v>
       </c>
-      <c r="G69" s="63"/>
-      <c r="H69" s="71" t="s">
+      <c r="G69" s="64"/>
+      <c r="H69" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64"/>
       <c r="Q69" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="R69" s="64">
+      <c r="R69" s="66">
         <v>41</v>
       </c>
       <c r="S69" s="19">
@@ -4873,26 +4908,26 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="60"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="65"/>
+      <c r="P70" s="65"/>
       <c r="Q70" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="R70" s="67"/>
+      <c r="R70" s="68"/>
       <c r="S70" s="20">
         <v>1760</v>
       </c>
@@ -4901,26 +4936,26 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60"/>
+      <c r="A71" s="65"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="65"/>
+      <c r="N71" s="65"/>
+      <c r="O71" s="65"/>
+      <c r="P71" s="65"/>
       <c r="Q71" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="R71" s="67"/>
+      <c r="R71" s="68"/>
       <c r="S71" s="20">
         <v>31874</v>
       </c>
@@ -4929,26 +4964,26 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="65"/>
+      <c r="N72" s="65"/>
+      <c r="O72" s="65"/>
+      <c r="P72" s="65"/>
       <c r="Q72" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="R72" s="67"/>
+      <c r="R72" s="68"/>
       <c r="S72" s="20">
         <v>23630</v>
       </c>
@@ -4957,26 +4992,26 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="60"/>
-      <c r="P73" s="60"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="65"/>
+      <c r="N73" s="65"/>
+      <c r="O73" s="65"/>
+      <c r="P73" s="65"/>
       <c r="Q73" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="R73" s="67"/>
+      <c r="R73" s="68"/>
       <c r="S73" s="20">
         <v>45400</v>
       </c>
@@ -4985,26 +5020,26 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="60"/>
-      <c r="N74" s="60"/>
-      <c r="O74" s="60"/>
-      <c r="P74" s="60"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
+      <c r="P74" s="65"/>
       <c r="Q74" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="R74" s="67"/>
+      <c r="R74" s="68"/>
       <c r="S74" s="20">
         <v>36670</v>
       </c>
@@ -5013,26 +5048,26 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="93"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
       <c r="Q75" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="R75" s="65"/>
+      <c r="R75" s="67"/>
       <c r="S75" s="21">
         <v>22382</v>
       </c>
@@ -5041,38 +5076,38 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="63" t="s">
+      <c r="A76" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="B76" s="63" t="s">
+      <c r="B76" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="68" t="s">
+      <c r="C76" s="64"/>
+      <c r="D76" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="64">
+      <c r="E76" s="66">
         <v>2022</v>
       </c>
-      <c r="F76" s="64" t="s">
+      <c r="F76" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G76" s="63"/>
-      <c r="H76" s="71" t="s">
+      <c r="G76" s="64"/>
+      <c r="H76" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
-      <c r="O76" s="63"/>
-      <c r="P76" s="63"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="64"/>
+      <c r="O76" s="64"/>
+      <c r="P76" s="64"/>
       <c r="Q76" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="R76" s="64">
+      <c r="R76" s="66">
         <v>41</v>
       </c>
       <c r="S76" s="19">
@@ -5083,26 +5118,26 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="61"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
       <c r="Q77" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="R77" s="65"/>
+      <c r="R77" s="67"/>
       <c r="S77" s="21">
         <v>24000</v>
       </c>
@@ -5111,38 +5146,38 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="63" t="s">
+      <c r="A78" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="90" t="s">
+      <c r="C78" s="64"/>
+      <c r="D78" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="E78" s="64">
+      <c r="E78" s="66">
         <v>2022</v>
       </c>
-      <c r="F78" s="64">
+      <c r="F78" s="66">
         <v>11.622</v>
       </c>
-      <c r="G78" s="63"/>
-      <c r="H78" s="71" t="s">
+      <c r="G78" s="64"/>
+      <c r="H78" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="64"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="64"/>
+      <c r="N78" s="64"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="64"/>
       <c r="Q78" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="R78" s="64">
+      <c r="R78" s="66">
         <v>41</v>
       </c>
       <c r="S78" s="19">
@@ -5153,26 +5188,26 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="60"/>
-      <c r="O79" s="60"/>
-      <c r="P79" s="60"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="65"/>
+      <c r="O79" s="65"/>
+      <c r="P79" s="65"/>
       <c r="Q79" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="R79" s="67"/>
+      <c r="R79" s="68"/>
       <c r="S79" s="20">
         <v>308000</v>
       </c>
@@ -5181,26 +5216,26 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
-      <c r="P80" s="60"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="65"/>
+      <c r="O80" s="65"/>
+      <c r="P80" s="65"/>
       <c r="Q80" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="R80" s="67"/>
+      <c r="R80" s="68"/>
       <c r="S80" s="20">
         <v>20000</v>
       </c>
@@ -5209,26 +5244,26 @@
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="72"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="60"/>
-      <c r="P81" s="60"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="92"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="65"/>
+      <c r="M81" s="65"/>
+      <c r="N81" s="65"/>
+      <c r="O81" s="65"/>
+      <c r="P81" s="65"/>
       <c r="Q81" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="R81" s="67"/>
+      <c r="R81" s="68"/>
       <c r="S81" s="20">
         <v>31874</v>
       </c>
@@ -5237,26 +5272,26 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60"/>
-      <c r="O82" s="60"/>
-      <c r="P82" s="60"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="92"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
+      <c r="O82" s="65"/>
+      <c r="P82" s="65"/>
       <c r="Q82" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="R82" s="67"/>
+      <c r="R82" s="68"/>
       <c r="S82" s="20">
         <v>22382</v>
       </c>
@@ -5265,26 +5300,26 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="61"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="61"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="63"/>
       <c r="Q83" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="R83" s="65"/>
+      <c r="R83" s="67"/>
       <c r="S83" s="33">
         <v>23630</v>
       </c>
@@ -5293,38 +5328,38 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="63" t="s">
+      <c r="A84" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="B84" s="63" t="s">
+      <c r="B84" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="68" t="s">
+      <c r="C84" s="64"/>
+      <c r="D84" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="64">
+      <c r="E84" s="66">
         <v>2021</v>
       </c>
-      <c r="F84" s="64">
+      <c r="F84" s="66">
         <v>4.0960000000000001</v>
       </c>
-      <c r="G84" s="63"/>
-      <c r="H84" s="74" t="s">
+      <c r="G84" s="64"/>
+      <c r="H84" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="63"/>
-      <c r="J84" s="63"/>
-      <c r="K84" s="63"/>
-      <c r="L84" s="63"/>
-      <c r="M84" s="63"/>
-      <c r="N84" s="63"/>
-      <c r="O84" s="63"/>
-      <c r="P84" s="63"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="64"/>
+      <c r="P84" s="64"/>
       <c r="Q84" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="R84" s="64">
+      <c r="R84" s="66">
         <v>41</v>
       </c>
       <c r="S84" s="34">
@@ -5335,26 +5370,26 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="60"/>
-      <c r="N85" s="60"/>
-      <c r="O85" s="60"/>
-      <c r="P85" s="60"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65"/>
       <c r="Q85" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="R85" s="67"/>
+      <c r="R85" s="68"/>
       <c r="S85" s="34">
         <v>1450</v>
       </c>
@@ -5363,22 +5398,22 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="60"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="60"/>
-      <c r="O86" s="60"/>
-      <c r="P86" s="60"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="65"/>
       <c r="Q86" s="20" t="s">
         <v>80</v>
       </c>
@@ -5393,22 +5428,22 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="61"/>
-      <c r="P87" s="61"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="63"/>
+      <c r="L87" s="63"/>
+      <c r="M87" s="63"/>
+      <c r="N87" s="63"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="63"/>
       <c r="Q87" s="26" t="s">
         <v>105</v>
       </c>
@@ -5423,36 +5458,36 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B88" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="63"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="64">
+      <c r="C88" s="64"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="66">
         <v>2022</v>
       </c>
-      <c r="F88" s="64" t="s">
+      <c r="F88" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G88" s="63"/>
-      <c r="H88" s="71" t="s">
+      <c r="G88" s="64"/>
+      <c r="H88" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="64"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="64"/>
+      <c r="P88" s="64"/>
       <c r="Q88" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="R88" s="64">
+      <c r="R88" s="66">
         <v>41</v>
       </c>
       <c r="S88" s="34">
@@ -5463,26 +5498,26 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="60"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="60"/>
-      <c r="P89" s="60"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="65"/>
+      <c r="O89" s="65"/>
+      <c r="P89" s="65"/>
       <c r="Q89" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="R89" s="67"/>
+      <c r="R89" s="68"/>
       <c r="S89" s="20">
         <v>8606</v>
       </c>
@@ -5491,26 +5526,26 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="60"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="60"/>
-      <c r="P90" s="60"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="68"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="92"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="65"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65"/>
       <c r="Q90" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="R90" s="67"/>
+      <c r="R90" s="68"/>
       <c r="S90" s="20">
         <v>776</v>
       </c>
@@ -5519,22 +5554,22 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-      <c r="L91" s="61"/>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="61"/>
-      <c r="P91" s="61"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
       <c r="Q91" s="26" t="s">
         <v>105</v>
       </c>
@@ -5587,36 +5622,36 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="60" t="s">
+      <c r="A93" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="67">
+      <c r="C93" s="65"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="68">
         <v>2022</v>
       </c>
-      <c r="F93" s="67" t="s">
+      <c r="F93" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="G93" s="60"/>
-      <c r="H93" s="72" t="s">
+      <c r="G93" s="65"/>
+      <c r="H93" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
-      <c r="P93" s="60"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="65"/>
+      <c r="O93" s="65"/>
+      <c r="P93" s="65"/>
       <c r="Q93" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="R93" s="67">
+      <c r="R93" s="68">
         <v>41</v>
       </c>
       <c r="S93" s="34">
@@ -5627,26 +5662,26 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="61"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="61"/>
-      <c r="L94" s="61"/>
-      <c r="M94" s="61"/>
-      <c r="N94" s="61"/>
-      <c r="O94" s="61"/>
-      <c r="P94" s="61"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="63"/>
+      <c r="L94" s="63"/>
+      <c r="M94" s="63"/>
+      <c r="N94" s="63"/>
+      <c r="O94" s="63"/>
+      <c r="P94" s="63"/>
       <c r="Q94" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="R94" s="65"/>
+      <c r="R94" s="67"/>
       <c r="S94" s="21">
         <v>31873</v>
       </c>
@@ -5697,38 +5732,38 @@
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="63" t="s">
+      <c r="A96" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="B96" s="63" t="s">
+      <c r="B96" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="C96" s="63"/>
-      <c r="D96" s="68" t="s">
+      <c r="C96" s="64"/>
+      <c r="D96" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="E96" s="64">
+      <c r="E96" s="66">
         <v>2020</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="66">
         <v>4.0759999999999996</v>
       </c>
-      <c r="G96" s="63"/>
-      <c r="H96" s="98" t="s">
+      <c r="G96" s="64"/>
+      <c r="H96" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="63"/>
-      <c r="J96" s="63"/>
-      <c r="K96" s="63"/>
-      <c r="L96" s="63"/>
-      <c r="M96" s="63"/>
-      <c r="N96" s="63"/>
-      <c r="O96" s="63"/>
-      <c r="P96" s="63"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
+      <c r="N96" s="64"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="64"/>
       <c r="Q96" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="R96" s="100">
+      <c r="R96" s="87">
         <v>41</v>
       </c>
       <c r="S96" s="19">
@@ -5739,26 +5774,26 @@
       </c>
     </row>
     <row r="97" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="99"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="61"/>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61"/>
-      <c r="N97" s="61"/>
-      <c r="O97" s="61"/>
-      <c r="P97" s="61"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="90"/>
+      <c r="I97" s="63"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="63"/>
+      <c r="L97" s="63"/>
+      <c r="M97" s="63"/>
+      <c r="N97" s="63"/>
+      <c r="O97" s="63"/>
+      <c r="P97" s="63"/>
       <c r="Q97" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="R97" s="101"/>
+      <c r="R97" s="88"/>
       <c r="S97" s="21">
         <v>11466</v>
       </c>
@@ -5767,34 +5802,34 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="63" t="s">
+      <c r="A98" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="B98" s="63" t="s">
+      <c r="B98" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="63"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="64">
+      <c r="C98" s="64"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="66">
         <v>2020</v>
       </c>
-      <c r="F98" s="64"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="98" t="s">
+      <c r="F98" s="66"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="I98" s="63"/>
-      <c r="J98" s="63"/>
-      <c r="K98" s="63"/>
-      <c r="L98" s="63"/>
-      <c r="M98" s="63"/>
-      <c r="N98" s="63"/>
-      <c r="O98" s="63"/>
-      <c r="P98" s="63"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="64"/>
+      <c r="N98" s="64"/>
+      <c r="O98" s="64"/>
+      <c r="P98" s="64"/>
       <c r="Q98" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="R98" s="64">
+      <c r="R98" s="66">
         <v>41</v>
       </c>
       <c r="S98" s="27">
@@ -5805,26 +5840,26 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="61"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="61"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="61"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="61"/>
-      <c r="L99" s="61"/>
-      <c r="M99" s="61"/>
-      <c r="N99" s="61"/>
-      <c r="O99" s="61"/>
-      <c r="P99" s="61"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="90"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="63"/>
+      <c r="L99" s="63"/>
+      <c r="M99" s="63"/>
+      <c r="N99" s="63"/>
+      <c r="O99" s="63"/>
+      <c r="P99" s="63"/>
       <c r="Q99" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="R99" s="65"/>
+      <c r="R99" s="67"/>
       <c r="S99" s="28">
         <v>308000</v>
       </c>
@@ -5833,30 +5868,30 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="63" t="s">
+      <c r="A100" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B100" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C100" s="63"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="64">
+      <c r="C100" s="64"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="66">
         <v>2020</v>
       </c>
-      <c r="F100" s="64"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="102" t="s">
+      <c r="F100" s="66"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="I100" s="63"/>
-      <c r="J100" s="63"/>
-      <c r="K100" s="63"/>
-      <c r="L100" s="63"/>
-      <c r="M100" s="63"/>
-      <c r="N100" s="63"/>
-      <c r="O100" s="63"/>
-      <c r="P100" s="63"/>
+      <c r="I100" s="64"/>
+      <c r="J100" s="64"/>
+      <c r="K100" s="64"/>
+      <c r="L100" s="64"/>
+      <c r="M100" s="64"/>
+      <c r="N100" s="64"/>
+      <c r="O100" s="64"/>
+      <c r="P100" s="64"/>
       <c r="Q100" s="29" t="s">
         <v>148</v>
       </c>
@@ -5871,22 +5906,22 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="60"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="60"/>
-      <c r="H101" s="96"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="60"/>
-      <c r="M101" s="60"/>
-      <c r="N101" s="60"/>
-      <c r="O101" s="60"/>
-      <c r="P101" s="60"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
+      <c r="O101" s="65"/>
+      <c r="P101" s="65"/>
       <c r="Q101" s="12" t="s">
         <v>126</v>
       </c>
@@ -5901,22 +5936,22 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="61"/>
-      <c r="B102" s="61"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="97"/>
-      <c r="I102" s="61"/>
-      <c r="J102" s="61"/>
-      <c r="K102" s="61"/>
-      <c r="L102" s="61"/>
-      <c r="M102" s="61"/>
-      <c r="N102" s="61"/>
-      <c r="O102" s="61"/>
-      <c r="P102" s="61"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="63"/>
+      <c r="L102" s="63"/>
+      <c r="M102" s="63"/>
+      <c r="N102" s="63"/>
+      <c r="O102" s="63"/>
+      <c r="P102" s="63"/>
       <c r="Q102" s="30" t="s">
         <v>127</v>
       </c>
@@ -5969,30 +6004,30 @@
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="63" t="s">
+      <c r="A104" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="B104" s="63" t="s">
+      <c r="B104" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="C104" s="63"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="64">
+      <c r="C104" s="64"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="66">
         <v>2019</v>
       </c>
-      <c r="F104" s="64"/>
-      <c r="G104" s="63"/>
-      <c r="H104" s="95" t="s">
+      <c r="F104" s="66"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="I104" s="63"/>
-      <c r="J104" s="63"/>
-      <c r="K104" s="63"/>
-      <c r="L104" s="63"/>
-      <c r="M104" s="63"/>
-      <c r="N104" s="63"/>
-      <c r="O104" s="63"/>
-      <c r="P104" s="63"/>
+      <c r="I104" s="64"/>
+      <c r="J104" s="64"/>
+      <c r="K104" s="64"/>
+      <c r="L104" s="64"/>
+      <c r="M104" s="64"/>
+      <c r="N104" s="64"/>
+      <c r="O104" s="64"/>
+      <c r="P104" s="64"/>
       <c r="Q104" s="29" t="s">
         <v>78</v>
       </c>
@@ -6007,22 +6042,22 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="60"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="96"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-      <c r="N105" s="60"/>
-      <c r="O105" s="60"/>
-      <c r="P105" s="60"/>
+      <c r="A105" s="65"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="65"/>
+      <c r="M105" s="65"/>
+      <c r="N105" s="65"/>
+      <c r="O105" s="65"/>
+      <c r="P105" s="65"/>
       <c r="Q105" s="12" t="s">
         <v>126</v>
       </c>
@@ -6037,22 +6072,22 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="61"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="61"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="61"/>
-      <c r="J106" s="61"/>
-      <c r="K106" s="61"/>
-      <c r="L106" s="61"/>
-      <c r="M106" s="61"/>
-      <c r="N106" s="61"/>
-      <c r="O106" s="61"/>
-      <c r="P106" s="61"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="63"/>
+      <c r="J106" s="63"/>
+      <c r="K106" s="63"/>
+      <c r="L106" s="63"/>
+      <c r="M106" s="63"/>
+      <c r="N106" s="63"/>
+      <c r="O106" s="63"/>
+      <c r="P106" s="63"/>
       <c r="Q106" s="30" t="s">
         <v>127</v>
       </c>
@@ -6074,6 +6109,389 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="407">
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="K37:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K49:K59"/>
+    <mergeCell ref="K60:K63"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="K69:K75"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="K14:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N27:N31"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="N37:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N24"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="P69:P75"/>
+    <mergeCell ref="R69:R75"/>
+    <mergeCell ref="P14:P24"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="P27:P31"/>
+    <mergeCell ref="O27:O31"/>
+    <mergeCell ref="O37:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O49:O59"/>
+    <mergeCell ref="O60:O63"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="O69:O75"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="R93:R94"/>
+    <mergeCell ref="H49:H59"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="R27:R31"/>
+    <mergeCell ref="R37:R45"/>
+    <mergeCell ref="R60:R63"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F14:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="R49:R59"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="F49:F59"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="D49:D59"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M31"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P37:P45"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="P49:P59"/>
+    <mergeCell ref="P60:P63"/>
+    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H37:H45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="E49:E59"/>
+    <mergeCell ref="L49:L59"/>
+    <mergeCell ref="L60:L63"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="M37:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E14:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="E69:E75"/>
+    <mergeCell ref="F69:F75"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="H69:H75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="R76:R77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="P78:P83"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="P88:P91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="R96:R97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="R78:R83"/>
+    <mergeCell ref="H78:H83"/>
+    <mergeCell ref="F78:F83"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="R88:R90"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="O78:O83"/>
+    <mergeCell ref="N78:N83"/>
+    <mergeCell ref="E78:E83"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="O88:O91"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="K78:K83"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="P104:P106"/>
+    <mergeCell ref="P100:P102"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="G78:G83"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="O104:O106"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C49:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G37:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G49:G59"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B49:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I37:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I49:I59"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I69:I75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J83"/>
+    <mergeCell ref="J84:J87"/>
+    <mergeCell ref="J88:J91"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="J37:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="L37:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L83"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="L69:L75"/>
+    <mergeCell ref="J49:J59"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J69:J75"/>
+    <mergeCell ref="R14:R24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="N49:N59"/>
+    <mergeCell ref="N60:N63"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="N88:N91"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="Q25:Q26"/>
     <mergeCell ref="H14:H24"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="K12:K13"/>
@@ -6098,408 +6516,25 @@
     <mergeCell ref="M98:M99"/>
     <mergeCell ref="M100:M102"/>
     <mergeCell ref="M104:M106"/>
-    <mergeCell ref="R14:R24"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="N49:N59"/>
-    <mergeCell ref="N60:N63"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="N88:N91"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="L78:L83"/>
-    <mergeCell ref="L100:L102"/>
-    <mergeCell ref="L69:L75"/>
-    <mergeCell ref="J49:J59"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J69:J75"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="L37:L45"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J78:J83"/>
-    <mergeCell ref="J84:J87"/>
-    <mergeCell ref="J88:J91"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="J37:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I37:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I49:I59"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="I69:I75"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="B49:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G37:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G49:G59"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G75"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C49:C59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="P104:P106"/>
-    <mergeCell ref="P100:P102"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="G78:G83"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="O104:O106"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="R96:R97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="P96:P97"/>
-    <mergeCell ref="R78:R83"/>
-    <mergeCell ref="H78:H83"/>
-    <mergeCell ref="F78:F83"/>
-    <mergeCell ref="D78:D83"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="R88:R90"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="O78:O83"/>
-    <mergeCell ref="N78:N83"/>
-    <mergeCell ref="E78:E83"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="O88:O91"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="K78:K83"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="P78:P83"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="P93:P94"/>
-    <mergeCell ref="P88:P91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="E69:E75"/>
-    <mergeCell ref="F69:F75"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="H69:H75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E14:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="P37:P45"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="P49:P59"/>
-    <mergeCell ref="P60:P63"/>
-    <mergeCell ref="P64:P66"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H37:H45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="E49:E59"/>
-    <mergeCell ref="L49:L59"/>
-    <mergeCell ref="L60:L63"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="M37:M45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M31"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="R93:R94"/>
-    <mergeCell ref="H49:H59"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="R27:R31"/>
-    <mergeCell ref="R37:R45"/>
-    <mergeCell ref="R60:R63"/>
-    <mergeCell ref="R64:R66"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F14:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="R49:R59"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="F49:F59"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="D49:D59"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="P69:P75"/>
-    <mergeCell ref="R69:R75"/>
-    <mergeCell ref="P14:P24"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="P27:P31"/>
-    <mergeCell ref="O27:O31"/>
-    <mergeCell ref="O37:O45"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="O49:O59"/>
-    <mergeCell ref="O60:O63"/>
-    <mergeCell ref="O64:O66"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="O69:O75"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="K37:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K49:K59"/>
-    <mergeCell ref="K60:K63"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="K69:K75"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="K14:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N27:N31"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="N37:N45"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="N5" r:id="rId2"/>
-    <hyperlink ref="O5" r:id="rId3"/>
-    <hyperlink ref="P8" r:id="rId4"/>
-    <hyperlink ref="P12" r:id="rId5"/>
-    <hyperlink ref="N14" r:id="rId6"/>
-    <hyperlink ref="N25" r:id="rId7"/>
-    <hyperlink ref="O25" r:id="rId8"/>
-    <hyperlink ref="N27" r:id="rId9"/>
-    <hyperlink ref="O27" r:id="rId10"/>
-    <hyperlink ref="P32" r:id="rId11"/>
-    <hyperlink ref="O32" r:id="rId12"/>
-    <hyperlink ref="N36" r:id="rId13"/>
-    <hyperlink ref="O36" r:id="rId14"/>
-    <hyperlink ref="N37" r:id="rId15"/>
-    <hyperlink ref="O37" r:id="rId16"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="P12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="P32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N37" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="O37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId17"/>
@@ -6507,10 +6542,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -6672,10 +6707,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -6794,7 +6829,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
